--- a/biology/Zoologie/Gerbillus_vivax/Gerbillus_vivax.xlsx
+++ b/biology/Zoologie/Gerbillus_vivax/Gerbillus_vivax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus vivax ou Gerbillus (Hendecapleura) vivax est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre en Libye et en Égypte.
 Synonyme : Gerbillus amoenus (de Winton, 1902)
